--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H2">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N2">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O2">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P2">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q2">
-        <v>5.127963739273999</v>
+        <v>0.1832578202241111</v>
       </c>
       <c r="R2">
-        <v>46.15167365346599</v>
+        <v>1.649320382017</v>
       </c>
       <c r="S2">
-        <v>0.004842876295715306</v>
+        <v>0.0001382714960062119</v>
       </c>
       <c r="T2">
-        <v>0.004842876295715308</v>
+        <v>0.0001382714960062119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H3">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P3">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q3">
-        <v>18.88498003939</v>
+        <v>3.769771666332778</v>
       </c>
       <c r="R3">
-        <v>169.96482035451</v>
+        <v>33.927944996995</v>
       </c>
       <c r="S3">
-        <v>0.01783507583670372</v>
+        <v>0.002844364116457404</v>
       </c>
       <c r="T3">
-        <v>0.01783507583670372</v>
+        <v>0.002844364116457403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H4">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I4">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J4">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N4">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q4">
-        <v>46.999670906906</v>
+        <v>10.422091799686</v>
       </c>
       <c r="R4">
-        <v>422.997038162154</v>
+        <v>93.79882619717398</v>
       </c>
       <c r="S4">
-        <v>0.04438673978878412</v>
+        <v>0.007863665642723032</v>
       </c>
       <c r="T4">
-        <v>0.04438673978878412</v>
+        <v>0.007863665642723032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H5">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I5">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J5">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N5">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q5">
-        <v>28.17821890931199</v>
+        <v>10.14812657213444</v>
       </c>
       <c r="R5">
-        <v>253.603970183808</v>
+        <v>91.33313914920998</v>
       </c>
       <c r="S5">
-        <v>0.0266116601734598</v>
+        <v>0.007656953690016679</v>
       </c>
       <c r="T5">
-        <v>0.02661166017345981</v>
+        <v>0.007656953690016679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.528539</v>
       </c>
       <c r="I6">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J6">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N6">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O6">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P6">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q6">
-        <v>11.53485023462811</v>
+        <v>2.065052110272556</v>
       </c>
       <c r="R6">
-        <v>103.813652111653</v>
+        <v>18.585468992453</v>
       </c>
       <c r="S6">
-        <v>0.01089357406100055</v>
+        <v>0.001558120926402917</v>
       </c>
       <c r="T6">
-        <v>0.01089357406100055</v>
+        <v>0.001558120926402916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.528539</v>
       </c>
       <c r="I7">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J7">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P7">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q7">
         <v>42.47990577038389</v>
@@ -883,10 +883,10 @@
         <v>382.319151933455</v>
       </c>
       <c r="S7">
-        <v>0.04011824949619046</v>
+        <v>0.03205189341382927</v>
       </c>
       <c r="T7">
-        <v>0.04011824949619046</v>
+        <v>0.03205189341382927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.528539</v>
       </c>
       <c r="I8">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J8">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N8">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q8">
-        <v>105.7211385556175</v>
+        <v>117.441987676574</v>
       </c>
       <c r="R8">
-        <v>951.490247000557</v>
+        <v>1056.977889089166</v>
       </c>
       <c r="S8">
-        <v>0.09984360691667447</v>
+        <v>0.08861220388916562</v>
       </c>
       <c r="T8">
-        <v>0.09984360691667447</v>
+        <v>0.0886122038891656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.528539</v>
       </c>
       <c r="I9">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J9">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N9">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q9">
-        <v>63.38413286898489</v>
+        <v>114.3547935224322</v>
       </c>
       <c r="R9">
-        <v>570.4571958208639</v>
+        <v>1029.19314170189</v>
       </c>
       <c r="S9">
-        <v>0.05986031302146747</v>
+        <v>0.08628285743272091</v>
       </c>
       <c r="T9">
-        <v>0.05986031302146747</v>
+        <v>0.08628285743272089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H10">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I10">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J10">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N10">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O10">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P10">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q10">
-        <v>1.372357878632111</v>
+        <v>0.1124417383698889</v>
       </c>
       <c r="R10">
-        <v>12.351220907689</v>
+        <v>1.011975645329</v>
       </c>
       <c r="S10">
-        <v>0.001296062097468446</v>
+        <v>8.483942108953475E-05</v>
       </c>
       <c r="T10">
-        <v>0.001296062097468446</v>
+        <v>8.483942108953473E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H11">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I11">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J11">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P11">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q11">
-        <v>5.054043371323889</v>
+        <v>2.313023689257223</v>
       </c>
       <c r="R11">
-        <v>45.486390341915</v>
+        <v>20.817213203315</v>
       </c>
       <c r="S11">
-        <v>0.004773065506108042</v>
+        <v>0.00174522017898216</v>
       </c>
       <c r="T11">
-        <v>0.004773065506108043</v>
+        <v>0.001745220178982159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H12">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I12">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J12">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N12">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q12">
-        <v>12.57816395389344</v>
+        <v>6.394696378982</v>
       </c>
       <c r="R12">
-        <v>113.203475585041</v>
+        <v>57.55226741083801</v>
       </c>
       <c r="S12">
-        <v>0.01187888510002517</v>
+        <v>0.004824919524558513</v>
       </c>
       <c r="T12">
-        <v>0.01187888510002517</v>
+        <v>0.004824919524558512</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H13">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I13">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J13">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N13">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q13">
-        <v>7.541122108536887</v>
+        <v>6.226599179085555</v>
       </c>
       <c r="R13">
-        <v>67.87009897683198</v>
+        <v>56.03939261177</v>
       </c>
       <c r="S13">
-        <v>0.007121875925686325</v>
+        <v>0.004698087003710496</v>
       </c>
       <c r="T13">
-        <v>0.007121875925686327</v>
+        <v>0.004698087003710496</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H14">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I14">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J14">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N14">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O14">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P14">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q14">
-        <v>36.70611156221732</v>
+        <v>7.543333896987779</v>
       </c>
       <c r="R14">
-        <v>330.3550040599559</v>
+        <v>67.89000507289001</v>
       </c>
       <c r="S14">
-        <v>0.0346654474623315</v>
+        <v>0.005691588285483918</v>
       </c>
       <c r="T14">
-        <v>0.03466544746233151</v>
+        <v>0.005691588285483917</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H15">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I15">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J15">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P15">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q15">
-        <v>135.1792289144067</v>
+        <v>155.1728944487945</v>
       </c>
       <c r="R15">
-        <v>1216.61306022966</v>
+        <v>1396.55605003915</v>
       </c>
       <c r="S15">
-        <v>0.1276639845108065</v>
+        <v>0.1170808876194735</v>
       </c>
       <c r="T15">
-        <v>0.1276639845108065</v>
+        <v>0.1170808876194735</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H16">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I16">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J16">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N16">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q16">
-        <v>336.4249927283293</v>
+        <v>428.9984364866201</v>
       </c>
       <c r="R16">
-        <v>3027.824934554963</v>
+        <v>3860.98592837958</v>
       </c>
       <c r="S16">
-        <v>0.3177215568222576</v>
+        <v>0.323687444960269</v>
       </c>
       <c r="T16">
-        <v>0.3177215568222576</v>
+        <v>0.323687444960269</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H17">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I17">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J17">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N17">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q17">
-        <v>201.7004993596586</v>
+        <v>417.7213669184111</v>
       </c>
       <c r="R17">
-        <v>1815.304494236927</v>
+        <v>3759.4923022657</v>
       </c>
       <c r="S17">
-        <v>0.1904870269853205</v>
+        <v>0.3151786823991108</v>
       </c>
       <c r="T17">
-        <v>0.1904870269853205</v>
+        <v>0.3151786823991108</v>
       </c>
     </row>
   </sheetData>
